--- a/src/main/resources/Tabulka_bodov.xlsx
+++ b/src/main/resources/Tabulka_bodov.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zuzana\Desktop\Škola\PAZ1c\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zuzana\git\canteenApp\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1630E810-F2D1-4500-99BE-F18AC3C98A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404B6119-9525-49DA-9BA2-7CCAB026E269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4176" yWindow="204" windowWidth="17280" windowHeight="8964" xr2:uid="{97C7AFA4-8698-4E44-8735-1952AB99236D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{97C7AFA4-8698-4E44-8735-1952AB99236D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>Spolu</t>
   </si>
   <si>
-    <t>3 za pokrytie nutných, 0.5 za ďalšie</t>
-  </si>
-  <si>
     <t>8 plnohodnotných okien: mainScene, 3 x viewScene, 3 x createScene, shoppingListScene</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>iba MySQL</t>
+  </si>
+  <si>
+    <t>3 za pokrytie nutných</t>
   </si>
 </sst>
 </file>
@@ -649,7 +649,7 @@
   <dimension ref="B3:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -687,7 +687,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
@@ -699,10 +699,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
@@ -717,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
@@ -768,7 +768,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
@@ -830,7 +830,7 @@
       </c>
       <c r="D16" s="9">
         <f>SUBTOTAL(109,Table1[Požadované body])</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="4"/>
     </row>
